--- a/Distribution/electrodes_ranking.xlsx
+++ b/Distribution/electrodes_ranking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineering\fc_channelselection\Distribution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\fc_channelselection\Distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE14FA6-1457-420D-8E38-3E54D58022B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F1E3E7-CAAE-4810-8FAE-352C21E7F2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="5" r:id="rId1"/>
@@ -821,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFAF64A-5DEA-4FD4-B8E4-1ED29CE4150B}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -859,10 +859,10 @@
         <v>60</v>
       </c>
       <c r="E2" s="1">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -876,10 +876,10 @@
         <v>59</v>
       </c>
       <c r="E3" s="1">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
         <v>54</v>
       </c>
       <c r="E4" s="1">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1">
         <v>54</v>
@@ -910,10 +910,10 @@
         <v>56</v>
       </c>
       <c r="E5" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -927,10 +927,10 @@
         <v>51</v>
       </c>
       <c r="E6" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="1">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -944,10 +944,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="1">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -961,10 +961,10 @@
         <v>48</v>
       </c>
       <c r="E8" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -978,10 +978,10 @@
         <v>53</v>
       </c>
       <c r="E9" s="1">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -995,10 +995,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="1">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1012,10 +1012,10 @@
         <v>52</v>
       </c>
       <c r="E11" s="1">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1029,10 +1029,10 @@
         <v>11</v>
       </c>
       <c r="E12" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1049,7 +1049,7 @@
         <v>54</v>
       </c>
       <c r="F13" s="1">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1063,10 +1063,10 @@
         <v>42</v>
       </c>
       <c r="E14" s="1">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1080,10 +1080,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="1">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1097,10 +1097,10 @@
         <v>57</v>
       </c>
       <c r="E16" s="1">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1114,10 +1114,10 @@
         <v>8</v>
       </c>
       <c r="E17" s="1">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F17" s="1">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1131,10 +1131,10 @@
         <v>58</v>
       </c>
       <c r="E18" s="1">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1148,10 +1148,10 @@
         <v>47</v>
       </c>
       <c r="E19" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F19" s="1">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1165,10 +1165,10 @@
         <v>43</v>
       </c>
       <c r="E20" s="1">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F20" s="1">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1182,10 +1182,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F21" s="1">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1199,10 +1199,10 @@
         <v>49</v>
       </c>
       <c r="E22" s="1">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F22" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1216,10 +1216,10 @@
         <v>3</v>
       </c>
       <c r="E23" s="1">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1233,10 +1233,10 @@
         <v>33</v>
       </c>
       <c r="E24" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F24" s="1">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1250,10 +1250,10 @@
         <v>41</v>
       </c>
       <c r="E25" s="1">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F25" s="1">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1267,10 +1267,10 @@
         <v>39</v>
       </c>
       <c r="E26" s="1">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1284,10 +1284,10 @@
         <v>61</v>
       </c>
       <c r="E27" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F27" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1301,10 +1301,10 @@
         <v>12</v>
       </c>
       <c r="E28" s="1">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F28" s="1">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1318,10 +1318,10 @@
         <v>19</v>
       </c>
       <c r="E29" s="1">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F29" s="1">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1335,7 +1335,7 @@
         <v>20</v>
       </c>
       <c r="E30" s="1">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F30" s="1">
         <v>38</v>
@@ -1352,10 +1352,10 @@
         <v>46</v>
       </c>
       <c r="E31" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F31" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1369,10 +1369,10 @@
         <v>38</v>
       </c>
       <c r="E32" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F32" s="1">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1386,10 +1386,10 @@
         <v>6</v>
       </c>
       <c r="E33" s="1">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F33" s="1">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1403,10 +1403,10 @@
         <v>30</v>
       </c>
       <c r="E34" s="1">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F34" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1420,10 +1420,10 @@
         <v>21</v>
       </c>
       <c r="E35" s="1">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1437,10 +1437,10 @@
         <v>17</v>
       </c>
       <c r="E36" s="1">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1454,10 +1454,10 @@
         <v>34</v>
       </c>
       <c r="E37" s="1">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F37" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1471,10 +1471,10 @@
         <v>15</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" s="1">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1488,10 +1488,10 @@
         <v>40</v>
       </c>
       <c r="E39" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1505,10 +1505,10 @@
         <v>18</v>
       </c>
       <c r="E40" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F40" s="1">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1522,10 +1522,10 @@
         <v>16</v>
       </c>
       <c r="E41" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F41" s="1">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1539,10 +1539,10 @@
         <v>1</v>
       </c>
       <c r="E42" s="1">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F42" s="1">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1556,10 +1556,10 @@
         <v>55</v>
       </c>
       <c r="E43" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F43" s="1">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1573,10 +1573,10 @@
         <v>24</v>
       </c>
       <c r="E44" s="1">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F44" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F45" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1607,10 +1607,10 @@
         <v>29</v>
       </c>
       <c r="E46" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F46" s="1">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1624,10 +1624,10 @@
         <v>25</v>
       </c>
       <c r="E47" s="1">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F47" s="1">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1641,10 +1641,10 @@
         <v>37</v>
       </c>
       <c r="E48" s="1">
+        <v>7</v>
+      </c>
+      <c r="F48" s="1">
         <v>35</v>
-      </c>
-      <c r="F48" s="1">
-        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1658,10 +1658,10 @@
         <v>45</v>
       </c>
       <c r="E49" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F49" s="1">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1675,10 +1675,10 @@
         <v>2</v>
       </c>
       <c r="E50" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F50" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1692,10 +1692,10 @@
         <v>35</v>
       </c>
       <c r="E51" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F51" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1709,10 +1709,10 @@
         <v>22</v>
       </c>
       <c r="E52" s="1">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F52" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1726,10 +1726,10 @@
         <v>13</v>
       </c>
       <c r="E53" s="1">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F53" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1743,10 +1743,10 @@
         <v>28</v>
       </c>
       <c r="E54" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F54" s="1">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -1760,7 +1760,7 @@
         <v>31</v>
       </c>
       <c r="E55" s="1">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F55" s="1">
         <v>2</v>
@@ -1777,10 +1777,10 @@
         <v>32</v>
       </c>
       <c r="E56" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F56" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1794,10 +1794,10 @@
         <v>14</v>
       </c>
       <c r="E57" s="1">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F57" s="1">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1811,10 +1811,10 @@
         <v>23</v>
       </c>
       <c r="E58" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F58" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -1828,10 +1828,10 @@
         <v>44</v>
       </c>
       <c r="E59" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1845,10 +1845,10 @@
         <v>36</v>
       </c>
       <c r="E60" s="1">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F60" s="1">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1862,10 +1862,10 @@
         <v>26</v>
       </c>
       <c r="E61" s="1">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F61" s="1">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -1875,8 +1875,14 @@
       <c r="C62" s="1">
         <v>12</v>
       </c>
+      <c r="D62" s="1">
+        <v>27</v>
+      </c>
       <c r="E62" s="1">
-        <v>44</v>
+        <v>27</v>
+      </c>
+      <c r="F62" s="1">
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -1885,6 +1891,15 @@
       </c>
       <c r="C63" s="1">
         <v>36</v>
+      </c>
+      <c r="D63" s="1">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1">
+        <v>5</v>
+      </c>
+      <c r="F63" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +1912,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3300,8 +3317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3DDEB4-DC88-4FC8-A483-D19AAFAC10A6}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4202,7 +4219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477FBDDC-C8EB-42DD-A3AC-0BD12519E51F}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5102,7 +5121,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED6C7B9-DCB8-4A51-A636-E235D35DF19A}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Distribution/electrodes_ranking.xlsx
+++ b/Distribution/electrodes_ranking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\fc_channelselection\Distribution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\fc_channelselection\distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F1E3E7-CAAE-4810-8FAE-352C21E7F2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E27095-F19A-48C9-8399-B8DAB74FE37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="5" r:id="rId1"/>
@@ -40,12 +40,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="73">
   <si>
     <t>electrodes</t>
-  </si>
-  <si>
-    <t>mi_mean</t>
   </si>
   <si>
     <t>T7</t>
@@ -242,9 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pcc_mean</t>
-  </si>
-  <si>
     <t>log_mean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,7 +267,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>plv_mean</t>
+    <t>mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -821,7 +816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFAF64A-5DEA-4FD4-B8E4-1ED29CE4150B}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -830,22 +825,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1912,9 +1907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1923,22 +1916,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -1950,7 +1943,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>7.4745999999999996E-3</v>
@@ -1972,7 +1965,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>5.1887086232275297E-3</v>
@@ -1994,7 +1987,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>5.17096960431674E-3</v>
@@ -2016,7 +2009,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
         <v>4.1108766244722398E-3</v>
@@ -2038,7 +2031,7 @@
         <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
         <v>3.8593913019357301E-3</v>
@@ -2060,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>3.5918765252834798E-3</v>
@@ -2082,7 +2075,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <v>3.5844110769237998E-3</v>
@@ -2104,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1">
         <v>3.4954216373581201E-3</v>
@@ -2126,7 +2119,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1">
         <v>3.3713225056345498E-3</v>
@@ -2148,7 +2141,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
         <v>3.2720848919275099E-3</v>
@@ -2170,7 +2163,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1">
         <v>3.1735894533662101E-3</v>
@@ -2192,7 +2185,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1">
         <v>3.1718028893417301E-3</v>
@@ -2214,7 +2207,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1">
         <v>3.1652074177433301E-3</v>
@@ -2236,7 +2229,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1">
         <v>3.12925771269983E-3</v>
@@ -2258,7 +2251,7 @@
         <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1">
         <v>3.0733139063727501E-3</v>
@@ -2280,7 +2273,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1">
         <v>3.0419740173744801E-3</v>
@@ -2302,7 +2295,7 @@
         <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1">
         <v>3.0283545505424298E-3</v>
@@ -2324,7 +2317,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1">
         <v>2.9689199235157101E-3</v>
@@ -2346,7 +2339,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1">
         <v>2.9281322037327702E-3</v>
@@ -2368,7 +2361,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
         <v>2.9251089218812398E-3</v>
@@ -2390,7 +2383,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1">
         <v>2.92137770909977E-3</v>
@@ -2412,7 +2405,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1">
         <v>2.9110373716215001E-3</v>
@@ -2434,7 +2427,7 @@
         <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="1">
         <v>2.8720128752583E-3</v>
@@ -2456,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="1">
         <v>2.8678666469829799E-3</v>
@@ -2478,7 +2471,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1">
         <v>2.8574703590906699E-3</v>
@@ -2500,7 +2493,7 @@
         <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1">
         <v>2.82772494361283E-3</v>
@@ -2522,7 +2515,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1">
         <v>2.8147810883996402E-3</v>
@@ -2544,7 +2537,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="1">
         <v>2.7866449158136298E-3</v>
@@ -2566,7 +2559,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="1">
         <v>2.7844256577323899E-3</v>
@@ -2588,7 +2581,7 @@
         <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="1">
         <v>2.7783228588749201E-3</v>
@@ -2610,7 +2603,7 @@
         <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="1">
         <v>2.70936185777819E-3</v>
@@ -2632,7 +2625,7 @@
         <v>57</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="1">
         <v>2.6919184892897001E-3</v>
@@ -2654,7 +2647,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="1">
         <v>2.68794125003765E-3</v>
@@ -2676,7 +2669,7 @@
         <v>45</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1">
         <v>2.68515429638819E-3</v>
@@ -2698,7 +2691,7 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="1">
         <v>2.68036289501721E-3</v>
@@ -2720,7 +2713,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="1">
         <v>2.6681435527116399E-3</v>
@@ -2742,7 +2735,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" s="1">
         <v>2.6155035670140099E-3</v>
@@ -2764,7 +2757,7 @@
         <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" s="1">
         <v>2.5896556073195802E-3</v>
@@ -2786,7 +2779,7 @@
         <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="1">
         <v>2.5886967289116799E-3</v>
@@ -2808,7 +2801,7 @@
         <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" s="1">
         <v>2.5067631118463399E-3</v>
@@ -2830,7 +2823,7 @@
         <v>53</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" s="1">
         <v>2.5066121230242801E-3</v>
@@ -2852,7 +2845,7 @@
         <v>24</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43" s="1">
         <v>2.5025899976969098E-3</v>
@@ -2874,7 +2867,7 @@
         <v>22</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" s="1">
         <v>2.4873319999726301E-3</v>
@@ -2896,7 +2889,7 @@
         <v>35</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45" s="1">
         <v>2.4741085047350298E-3</v>
@@ -2918,7 +2911,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46" s="1">
         <v>2.45760188541645E-3</v>
@@ -2940,7 +2933,7 @@
         <v>55</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D47" s="1">
         <v>2.4242993208227598E-3</v>
@@ -2962,7 +2955,7 @@
         <v>58</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" s="1">
         <v>2.4198186436599199E-3</v>
@@ -2984,7 +2977,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49" s="1">
         <v>2.4049504029550499E-3</v>
@@ -3006,7 +2999,7 @@
         <v>59</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D50" s="1">
         <v>2.36176458573726E-3</v>
@@ -3028,7 +3021,7 @@
         <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51" s="1">
         <v>2.2734712312292198E-3</v>
@@ -3050,7 +3043,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" s="1">
         <v>2.1364704712168998E-3</v>
@@ -3072,7 +3065,7 @@
         <v>15</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53" s="1">
         <v>2.1344857037171902E-3</v>
@@ -3094,7 +3087,7 @@
         <v>13</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D54" s="1">
         <v>2.1011953390334698E-3</v>
@@ -3116,7 +3109,7 @@
         <v>52</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="1">
         <v>2.04601007734441E-3</v>
@@ -3138,7 +3131,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D56" s="1">
         <v>1.9920651949275098E-3</v>
@@ -3160,7 +3153,7 @@
         <v>27</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57" s="1">
         <v>1.96716200316763E-3</v>
@@ -3182,7 +3175,7 @@
         <v>60</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D58" s="1">
         <v>1.8921124660822501E-3</v>
@@ -3204,7 +3197,7 @@
         <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59" s="1">
         <v>1.87014795814102E-3</v>
@@ -3226,7 +3219,7 @@
         <v>20</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D60" s="1">
         <v>1.77798108948373E-3</v>
@@ -3248,7 +3241,7 @@
         <v>14</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" s="1">
         <v>1.7642732731989301E-3</v>
@@ -3270,7 +3263,7 @@
         <v>12</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D62" s="1">
         <v>1.64366760692653E-3</v>
@@ -3292,7 +3285,7 @@
         <v>36</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D63" s="1">
         <v>1.0566775959073001E-3</v>
@@ -3318,7 +3311,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3328,16 +3321,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3348,7 +3341,7 @@
         <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1">
         <v>0.24854369749107999</v>
@@ -3362,7 +3355,7 @@
         <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1">
         <v>0.243303954776807</v>
@@ -3376,7 +3369,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1">
         <v>0.24098177767166301</v>
@@ -3390,7 +3383,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1">
         <v>0.237891742981478</v>
@@ -3404,7 +3397,7 @@
         <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1">
         <v>0.234039446262683</v>
@@ -3418,7 +3411,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1">
         <v>0.23387719566843401</v>
@@ -3432,7 +3425,7 @@
         <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>0.23351195203778499</v>
@@ -3446,7 +3439,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1">
         <v>0.233191659280957</v>
@@ -3460,7 +3453,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1">
         <v>0.23174098304407501</v>
@@ -3474,7 +3467,7 @@
         <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1">
         <v>0.231640226850793</v>
@@ -3488,7 +3481,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1">
         <v>0.23077163982073601</v>
@@ -3502,7 +3495,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1">
         <v>0.23024203388318601</v>
@@ -3516,7 +3509,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
         <v>0.22854257230280001</v>
@@ -3530,7 +3523,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1">
         <v>0.22848336750842199</v>
@@ -3544,7 +3537,7 @@
         <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1">
         <v>0.228282974639446</v>
@@ -3558,7 +3551,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1">
         <v>0.228215083417388</v>
@@ -3572,7 +3565,7 @@
         <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1">
         <v>0.227244514131591</v>
@@ -3586,7 +3579,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>0.22586017031516301</v>
@@ -3600,7 +3593,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1">
         <v>0.22573464071726601</v>
@@ -3614,7 +3607,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1">
         <v>0.22486055754519099</v>
@@ -3628,7 +3621,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1">
         <v>0.2247821728155</v>
@@ -3642,7 +3635,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1">
         <v>0.22410305561879201</v>
@@ -3656,7 +3649,7 @@
         <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1">
         <v>0.22327229666787399</v>
@@ -3670,7 +3663,7 @@
         <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1">
         <v>0.223168284335337</v>
@@ -3684,7 +3677,7 @@
         <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1">
         <v>0.2226398722049</v>
@@ -3698,7 +3691,7 @@
         <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="1">
         <v>0.22081515020072801</v>
@@ -3712,7 +3705,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="1">
         <v>0.219172444560854</v>
@@ -3726,7 +3719,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1">
         <v>0.21916420903370101</v>
@@ -3740,7 +3733,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="1">
         <v>0.217246076751171</v>
@@ -3754,7 +3747,7 @@
         <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="1">
         <v>0.21658102140431601</v>
@@ -3768,7 +3761,7 @@
         <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" s="1">
         <v>0.21603959428726599</v>
@@ -3782,7 +3775,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="1">
         <v>0.21490892299268399</v>
@@ -3796,7 +3789,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="1">
         <v>0.213445947038338</v>
@@ -3810,7 +3803,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="1">
         <v>0.213308386623908</v>
@@ -3824,7 +3817,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" s="1">
         <v>0.21328490367911901</v>
@@ -3838,7 +3831,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="1">
         <v>0.211955129235114</v>
@@ -3852,7 +3845,7 @@
         <v>15</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" s="1">
         <v>0.21128178923153201</v>
@@ -3866,7 +3859,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" s="1">
         <v>0.21099432075013799</v>
@@ -3880,7 +3873,7 @@
         <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40" s="1">
         <v>0.210853888578864</v>
@@ -3894,7 +3887,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="1">
         <v>0.21071940954714399</v>
@@ -3908,7 +3901,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" s="1">
         <v>0.209346890556211</v>
@@ -3922,7 +3915,7 @@
         <v>55</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="1">
         <v>0.20879422166254799</v>
@@ -3936,7 +3929,7 @@
         <v>24</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="1">
         <v>0.20868849708621701</v>
@@ -3950,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" s="1">
         <v>0.20617456891186001</v>
@@ -3964,7 +3957,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="1">
         <v>0.20498783994841799</v>
@@ -3978,7 +3971,7 @@
         <v>25</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47" s="1">
         <v>0.20261655212301899</v>
@@ -3992,7 +3985,7 @@
         <v>37</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" s="1">
         <v>0.20239046755735901</v>
@@ -4006,7 +3999,7 @@
         <v>45</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="1">
         <v>0.20151248418186499</v>
@@ -4020,7 +4013,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50" s="1">
         <v>0.20141218035803099</v>
@@ -4034,7 +4027,7 @@
         <v>35</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D51" s="1">
         <v>0.19939130228334601</v>
@@ -4048,7 +4041,7 @@
         <v>22</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D52" s="1">
         <v>0.194544645325781</v>
@@ -4062,7 +4055,7 @@
         <v>13</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D53" s="1">
         <v>0.193227580923197</v>
@@ -4076,7 +4069,7 @@
         <v>28</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" s="1">
         <v>0.19322654473914799</v>
@@ -4090,7 +4083,7 @@
         <v>31</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" s="1">
         <v>0.19293909167106599</v>
@@ -4104,7 +4097,7 @@
         <v>32</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" s="1">
         <v>0.19195927333098201</v>
@@ -4118,7 +4111,7 @@
         <v>14</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57" s="1">
         <v>0.189756924608738</v>
@@ -4132,7 +4125,7 @@
         <v>23</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1">
         <v>0.187711798268756</v>
@@ -4146,7 +4139,7 @@
         <v>44</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D59" s="1">
         <v>0.184811134489169</v>
@@ -4160,7 +4153,7 @@
         <v>36</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D60" s="1">
         <v>0.182683986848174</v>
@@ -4174,7 +4167,7 @@
         <v>26</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61" s="1">
         <v>0.177995340334522</v>
@@ -4188,7 +4181,7 @@
         <v>27</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D62" s="1">
         <v>0.17045587382965099</v>
@@ -4202,7 +4195,7 @@
         <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D63" s="1">
         <v>0.16477672764140899</v>
@@ -4220,7 +4213,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4230,16 +4223,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4250,7 +4243,7 @@
         <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1">
         <v>0.98969831408518805</v>
@@ -4264,7 +4257,7 @@
         <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1">
         <v>0.9872803671332</v>
@@ -4278,7 +4271,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1">
         <v>0.98655764456891604</v>
@@ -4292,7 +4285,7 @@
         <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <v>0.97107282686068597</v>
@@ -4306,7 +4299,7 @@
         <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1">
         <v>0.96810779191677798</v>
@@ -4320,7 +4313,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1">
         <v>0.94513776910881198</v>
@@ -4334,7 +4327,7 @@
         <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1">
         <v>0.936375215688247</v>
@@ -4348,7 +4341,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
         <v>0.93247697756924797</v>
@@ -4362,7 +4355,7 @@
         <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1">
         <v>0.92741770962831505</v>
@@ -4376,7 +4369,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1">
         <v>0.91526863208083498</v>
@@ -4390,7 +4383,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1">
         <v>0.90584175975601799</v>
@@ -4404,7 +4397,7 @@
         <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1">
         <v>0.89908655630287804</v>
@@ -4418,7 +4411,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1">
         <v>0.88199228915044703</v>
@@ -4432,7 +4425,7 @@
         <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1">
         <v>0.88197147848769497</v>
@@ -4446,7 +4439,7 @@
         <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1">
         <v>0.88107848761539098</v>
@@ -4460,7 +4453,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1">
         <v>0.87813626748663998</v>
@@ -4474,7 +4467,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1">
         <v>0.86333104513359704</v>
@@ -4488,7 +4481,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
         <v>0.85867675696408796</v>
@@ -4502,7 +4495,7 @@
         <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1">
         <v>0.85690623813731603</v>
@@ -4516,7 +4509,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="1">
         <v>0.83504420944360502</v>
@@ -4530,7 +4523,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1">
         <v>0.81949690454981805</v>
@@ -4544,7 +4537,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1">
         <v>0.81895557075112102</v>
@@ -4558,7 +4551,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="1">
         <v>0.818041232643962</v>
@@ -4572,7 +4565,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="1">
         <v>0.81329908129502704</v>
@@ -4586,7 +4579,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1">
         <v>0.79779946938957402</v>
@@ -4600,7 +4593,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1">
         <v>0.79487249533322801</v>
@@ -4614,7 +4607,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="1">
         <v>0.79473130259570701</v>
@@ -4628,7 +4621,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1">
         <v>0.78406788531896898</v>
@@ -4642,7 +4635,7 @@
         <v>53</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="1">
         <v>0.78239785599966305</v>
@@ -4656,7 +4649,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="1">
         <v>0.780640043716615</v>
@@ -4670,7 +4663,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="1">
         <v>0.77517204140903495</v>
@@ -4684,7 +4677,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
         <v>0.76888314285204595</v>
@@ -4698,7 +4691,7 @@
         <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1">
         <v>0.76843126033482101</v>
@@ -4712,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1">
         <v>0.75933747930349405</v>
@@ -4726,7 +4719,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" s="1">
         <v>0.75193787171654702</v>
@@ -4740,7 +4733,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" s="1">
         <v>0.75088869959526805</v>
@@ -4754,7 +4747,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="1">
         <v>0.74352018925552998</v>
@@ -4768,7 +4761,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" s="1">
         <v>0.73979831737808599</v>
@@ -4782,7 +4775,7 @@
         <v>20</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D40" s="1">
         <v>0.73087443150220499</v>
@@ -4796,7 +4789,7 @@
         <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" s="1">
         <v>0.72839959366295504</v>
@@ -4810,7 +4803,7 @@
         <v>47</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1">
         <v>0.71323081466340998</v>
@@ -4824,7 +4817,7 @@
         <v>16</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43" s="1">
         <v>0.71308507801224696</v>
@@ -4838,7 +4831,7 @@
         <v>29</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="1">
         <v>0.70619969260450399</v>
@@ -4852,7 +4845,7 @@
         <v>25</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45" s="1">
         <v>0.699318354433345</v>
@@ -4866,7 +4859,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" s="1">
         <v>0.69812215819379497</v>
@@ -4880,7 +4873,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" s="1">
         <v>0.69786878221067505</v>
@@ -4894,7 +4887,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="1">
         <v>0.671038886702921</v>
@@ -4908,7 +4901,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" s="1">
         <v>0.65567547546699001</v>
@@ -4922,7 +4915,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D50" s="1">
         <v>0.64428217498628204</v>
@@ -4936,7 +4929,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D51" s="1">
         <v>0.642002125409319</v>
@@ -4950,7 +4943,7 @@
         <v>19</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52" s="1">
         <v>0.63516772418770795</v>
@@ -4964,7 +4957,7 @@
         <v>35</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D53" s="1">
         <v>0.61481323081311001</v>
@@ -4978,7 +4971,7 @@
         <v>28</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" s="1">
         <v>0.60333836955829401</v>
@@ -4992,7 +4985,7 @@
         <v>46</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D55" s="1">
         <v>0.58860496734566603</v>
@@ -5006,7 +4999,7 @@
         <v>26</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D56" s="1">
         <v>0.56888062515280502</v>
@@ -5020,7 +5013,7 @@
         <v>37</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" s="1">
         <v>0.56013992939681401</v>
@@ -5034,7 +5027,7 @@
         <v>45</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58" s="1">
         <v>0.55366672624223101</v>
@@ -5048,7 +5041,7 @@
         <v>44</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D59" s="1">
         <v>0.54558301010028398</v>
@@ -5062,7 +5055,7 @@
         <v>18</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60" s="1">
         <v>0.52285078045465805</v>
@@ -5076,7 +5069,7 @@
         <v>36</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D61" s="1">
         <v>0.44881416370141602</v>
@@ -5090,7 +5083,7 @@
         <v>27</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D62" s="1">
         <v>0.42758237658537201</v>
@@ -5104,7 +5097,7 @@
         <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D63" s="1">
         <v>0.420786105305896</v>
@@ -5122,7 +5115,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5132,16 +5125,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5152,7 +5145,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1">
         <v>1.3062187791335</v>
@@ -5166,7 +5159,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1">
         <v>1.3057261637992701</v>
@@ -5180,7 +5173,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1">
         <v>1.29665619051478</v>
@@ -5194,7 +5187,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1">
         <v>1.29077716942344</v>
@@ -5208,7 +5201,7 @@
         <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1">
         <v>1.27076004025657</v>
@@ -5222,7 +5215,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1">
         <v>1.26915127605234</v>
@@ -5236,7 +5229,7 @@
         <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1">
         <v>1.26875282991159</v>
@@ -5250,7 +5243,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
         <v>1.2670839170608299</v>
@@ -5264,7 +5257,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1">
         <v>1.2642335477490301</v>
@@ -5278,7 +5271,7 @@
         <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1">
         <v>1.2635646065842601</v>
@@ -5292,7 +5285,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
         <v>1.2600733598615901</v>
@@ -5306,7 +5299,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1">
         <v>1.25954593508057</v>
@@ -5320,7 +5313,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1">
         <v>1.24737833193304</v>
@@ -5334,7 +5327,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1">
         <v>1.24031082250901</v>
@@ -5348,7 +5341,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1">
         <v>1.2395205888435099</v>
@@ -5362,7 +5355,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1">
         <v>1.2337315008796801</v>
@@ -5376,7 +5369,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1">
         <v>1.2328798903107101</v>
@@ -5390,7 +5383,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1">
         <v>1.22306416336434</v>
@@ -5404,7 +5397,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1">
         <v>1.2225472053387301</v>
@@ -5418,7 +5411,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1">
         <v>1.22095103589307</v>
@@ -5432,7 +5425,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1">
         <v>1.22088206280322</v>
@@ -5446,7 +5439,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1">
         <v>1.2200477325782499</v>
@@ -5460,7 +5453,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1">
         <v>1.2192440147013901</v>
@@ -5474,7 +5467,7 @@
         <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1">
         <v>1.2141956013392901</v>
@@ -5488,7 +5481,7 @@
         <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1">
         <v>1.2116307612481501</v>
@@ -5502,7 +5495,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1">
         <v>1.2112393757564699</v>
@@ -5516,7 +5509,7 @@
         <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1">
         <v>1.20666954889648</v>
@@ -5530,7 +5523,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="1">
         <v>1.2011028992882</v>
@@ -5544,7 +5537,7 @@
         <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="1">
         <v>1.2010491316276399</v>
@@ -5558,7 +5551,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1">
         <v>1.1980335254996399</v>
@@ -5572,7 +5565,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1">
         <v>1.1973291044851999</v>
@@ -5586,7 +5579,7 @@
         <v>45</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="1">
         <v>1.1927293699538499</v>
@@ -5600,7 +5593,7 @@
         <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34" s="1">
         <v>1.19246739005117</v>
@@ -5614,7 +5607,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="1">
         <v>1.1909459325129499</v>
@@ -5628,7 +5621,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="1">
         <v>1.17829945825878</v>
@@ -5642,7 +5635,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" s="1">
         <v>1.17828163505068</v>
@@ -5656,7 +5649,7 @@
         <v>25</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38" s="1">
         <v>1.1733301908728699</v>
@@ -5670,7 +5663,7 @@
         <v>29</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="1">
         <v>1.1702357056960999</v>
@@ -5684,7 +5677,7 @@
         <v>21</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" s="1">
         <v>1.1675133684666099</v>
@@ -5698,7 +5691,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="1">
         <v>1.16301755802385</v>
@@ -5712,7 +5705,7 @@
         <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D42" s="1">
         <v>1.1628085029812401</v>
@@ -5726,7 +5719,7 @@
         <v>24</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43" s="1">
         <v>1.15935972052186</v>
@@ -5740,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" s="1">
         <v>1.1560477162865599</v>
@@ -5754,7 +5747,7 @@
         <v>15</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45" s="1">
         <v>1.15077992061006</v>
@@ -5768,7 +5761,7 @@
         <v>32</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" s="1">
         <v>1.14913382122334</v>
@@ -5782,7 +5775,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D47" s="1">
         <v>1.13368308297106</v>
@@ -5796,7 +5789,7 @@
         <v>35</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D48" s="1">
         <v>1.1316749104757</v>
@@ -5810,7 +5803,7 @@
         <v>37</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" s="1">
         <v>1.13069952380824</v>
@@ -5824,7 +5817,7 @@
         <v>28</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D50" s="1">
         <v>1.12826160376186</v>
@@ -5838,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" s="1">
         <v>1.12229107438204</v>
@@ -5852,7 +5845,7 @@
         <v>26</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52" s="1">
         <v>1.1208129998958201</v>
@@ -5866,7 +5859,7 @@
         <v>13</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D53" s="1">
         <v>1.11943441603782</v>
@@ -5880,7 +5873,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" s="1">
         <v>1.11802718932551</v>
@@ -5894,7 +5887,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D55" s="1">
         <v>1.11494327924531</v>
@@ -5908,7 +5901,7 @@
         <v>22</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D56" s="1">
         <v>1.1107623700054801</v>
@@ -5922,7 +5915,7 @@
         <v>14</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57" s="1">
         <v>1.1069604503805299</v>
@@ -5936,7 +5929,7 @@
         <v>31</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" s="1">
         <v>1.0954730118521501</v>
@@ -5950,7 +5943,7 @@
         <v>23</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1">
         <v>1.0867872438458901</v>
@@ -5964,7 +5957,7 @@
         <v>6</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D60" s="1">
         <v>1.0719492085548901</v>
@@ -5978,7 +5971,7 @@
         <v>27</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D61" s="1">
         <v>1.01943130267516</v>
@@ -5992,7 +5985,7 @@
         <v>36</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D62" s="1">
         <v>0.99387784638786403</v>
@@ -6006,7 +5999,7 @@
         <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D63" s="1">
         <v>0.92245870840329802</v>

--- a/Distribution/electrodes_ranking.xlsx
+++ b/Distribution/electrodes_ranking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\fc_channelselection\distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E27095-F19A-48C9-8399-B8DAB74FE37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F71744A-AC52-4F12-9608-9D58D8B03061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="data_driven_mi" sheetId="4" r:id="rId3"/>
     <sheet name="data_driven_pcc" sheetId="2" r:id="rId4"/>
     <sheet name="data_driven_plv" sheetId="3" r:id="rId5"/>
+    <sheet name="data_driven_pcc_dm" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="73">
   <si>
     <t>electrodes</t>
   </si>
@@ -540,6 +541,61 @@
         <a:xfrm>
           <a:off x="3429000" y="82688"/>
           <a:ext cx="2508379" cy="7258156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508132</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>3557</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B99A412-FE0C-C0B5-7AE8-C5B74ABE43E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="0"/>
+          <a:ext cx="2565532" cy="7423532"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1907,7 +1963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5115,7 +5173,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6011,4 +6069,905 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621C6E08-CD24-4927-92AB-F2EE5477C4D7}">
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.35994500646069899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.338657832929665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.33430098423060201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.33389086932418899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.32947451523721399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.31979565941427701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.296319008553314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.29420502645753199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.28551059365563303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.28493152516773901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.28007159209022198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.27625949852847598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.25902372097567999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.257980853147041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.244612050972633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.23565448559555699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.233952247075255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.233045840785569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.23256187980673201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.23247366719569099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.22958516401111601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.22365815873539099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.223582501079716</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.22143574356714499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.21523300907048701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>53</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.21386046722347099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.19786222075872401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.187231241879489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>54</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.18591019759014199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.184563193073777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>24</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.18051098656321199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>42</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.177134992786769</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.17359202249465799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>48</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.16502694746083901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>51</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.16463387521298101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>30</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.164299969252091</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.16257316536429001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>58</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.15989821856436801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>32</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.15942587374310199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>21</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.15926908516924601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>23</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.157465438143127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.157458627235395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.15530219285195099</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.15289921629725101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>33</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.15226353557700201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>31</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.150426536721121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.148868629760674</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.14311604748375101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.13356684480176301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.132995062354028</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>22</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.13031873088526</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>59</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.12836972853565401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>40</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.126558251098178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>49</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.12503446755265299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>13</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.12476593951585301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>56</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.12390304172241801</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.117547862061943</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>60</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.11571529689791001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.114592383773975</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>41</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.11339573186132799</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>61</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1">
+        <v>-1.0881240030710599E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>57</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="1">
+        <v>-1.9465291994656499E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Distribution/electrodes_ranking.xlsx
+++ b/Distribution/electrodes_ranking.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\fc_channelselection\distribution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\fc_channelselection\Distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F71744A-AC52-4F12-9608-9D58D8B03061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C429A60-AC16-49E6-9132-F0FFF06E082F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="5" r:id="rId1"/>
-    <sheet name="label_driven_mi" sheetId="1" r:id="rId2"/>
-    <sheet name="data_driven_mi" sheetId="4" r:id="rId3"/>
-    <sheet name="data_driven_pcc" sheetId="2" r:id="rId4"/>
-    <sheet name="data_driven_plv" sheetId="3" r:id="rId5"/>
-    <sheet name="data_driven_pcc_dm" sheetId="6" r:id="rId6"/>
+    <sheet name="label_driven_mi_origin" sheetId="7" r:id="rId2"/>
+    <sheet name="label_driven_mi" sheetId="1" r:id="rId3"/>
+    <sheet name="data_driven_mi" sheetId="4" r:id="rId4"/>
+    <sheet name="data_driven_pcc" sheetId="2" r:id="rId5"/>
+    <sheet name="data_driven_plv" sheetId="3" r:id="rId6"/>
+    <sheet name="data_driven_pcc_dm" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,8 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="74">
   <si>
     <t>electrodes</t>
   </si>
@@ -271,6 +270,9 @@
     <t>mean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>index</t>
+  </si>
 </sst>
 </file>
 
@@ -319,7 +321,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1960,12 +1962,913 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AE29D4-638D-4C81-8AC6-D9273822ACF9}">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.37998964273791003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.39501863216038302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.28220800081981101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.29159819798258102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.39385541330393198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.126749797055036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.25108841387311098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.21828314543282401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.22594313621092099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.24288638487007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.29795348201607602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.189593073694062</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9.1461063886485602E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.162750135847713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.11025307455266101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.16793722951878801</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.23885891958349301</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.29054575543065903</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.36065330242247901</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.32293630030036602</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.11238893962264999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.16824648341354401</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.22291550348957201</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1">
+        <v>24</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.22529290800829099</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.28893458956930901</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.32984379121021401</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.14186591079376601</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1">
+        <v>28</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.26955254535379403</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1">
+        <v>29</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.27393654547321999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1">
+        <v>30</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.21007932507690599</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1">
+        <v>31</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.64106290935922805</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.64382689087752698</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1">
+        <v>33</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.25417316561666298</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1">
+        <v>34</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.30721420897482199</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>35</v>
+      </c>
+      <c r="C37" s="1">
+        <v>35</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.22085510225611801</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1">
+        <v>36</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1">
+        <v>37</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.32853775553462899</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1">
+        <v>38</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.28285403983590701</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1">
+        <v>39</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.27595337497008898</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1">
+        <v>40</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.252992354359798</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1">
+        <v>41</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.475885938823018</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1">
+        <v>42</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.29112712936236801</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.32956542012499501</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.238709513226182</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.25373892015933502</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1">
+        <v>46</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.26825585517670397</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1">
+        <v>47</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.34519072630224501</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1">
+        <v>48</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.30933630799293499</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1">
+        <v>49</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.31421949090245199</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1">
+        <v>50</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.25751078897697099</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1">
+        <v>51</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.280588117119491</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1">
+        <v>52</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.15415151806855901</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <v>53</v>
+      </c>
+      <c r="C55" s="1">
+        <v>53</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.225919610089451</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <v>54</v>
+      </c>
+      <c r="C56" s="1">
+        <v>54</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.145746168327575</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1">
+        <v>55</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.21309415084908601</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="1">
+        <v>56</v>
+      </c>
+      <c r="C58" s="1">
+        <v>56</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.26920675462254001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="1">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1">
+        <v>57</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.25479287383400101</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <v>58</v>
+      </c>
+      <c r="C60" s="1">
+        <v>58</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.21239600012666801</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <v>59</v>
+      </c>
+      <c r="C61" s="1">
+        <v>59</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.20335038469734501</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="1">
+        <v>60</v>
+      </c>
+      <c r="C62" s="1">
+        <v>60</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.13017216749803501</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="1">
+        <v>61</v>
+      </c>
+      <c r="C63" s="1">
+        <v>61</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.43670108947424202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3364,13 +4267,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3DDEB4-DC88-4FC8-A483-D19AAFAC10A6}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4266,13 +5167,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477FBDDC-C8EB-42DD-A3AC-0BD12519E51F}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5168,13 +6067,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED6C7B9-DCB8-4A51-A636-E235D35DF19A}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6071,11 +6968,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621C6E08-CD24-4927-92AB-F2EE5477C4D7}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Distribution/electrodes_ranking.xlsx
+++ b/Distribution/electrodes_ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\fc_channelselection\Distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C429A60-AC16-49E6-9132-F0FFF06E082F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C17F71E-CE80-43FA-9EAD-94FAA2C82355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="data_driven_pcc" sheetId="2" r:id="rId5"/>
     <sheet name="data_driven_plv" sheetId="3" r:id="rId6"/>
     <sheet name="data_driven_pcc_dm" sheetId="6" r:id="rId7"/>
+    <sheet name="modeled_sigmoid" sheetId="8" r:id="rId8"/>
+    <sheet name="modeled_g_gaussian" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="76">
   <si>
     <t>electrodes</t>
   </si>
@@ -272,6 +274,14 @@
   </si>
   <si>
     <t>index</t>
+  </si>
+  <si>
+    <t>modeled_sigmoid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modeled_gaussian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -609,6 +619,192 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>70525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CDF3468-8100-76D8-2A54-CC9A29C5A456}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="0"/>
+          <a:ext cx="7534275" cy="2966125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>13601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B504DD6-C83C-C771-1BE8-6FD31AAAE420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429001" y="3248025"/>
+          <a:ext cx="6210300" cy="4909451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>682597</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D108EC6-7205-2659-0E65-1A51D8208710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="3257550"/>
+          <a:ext cx="6168997" cy="4876800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>74275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9800CBCC-AB66-E759-017A-BB0B1AA894C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="0"/>
+          <a:ext cx="7543800" cy="2969875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -872,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFAF64A-5DEA-4FD4-B8E4-1ED29CE4150B}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -881,7 +1077,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -900,8 +1096,14 @@
       <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -917,8 +1119,14 @@
       <c r="F2" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="1">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -934,8 +1142,14 @@
       <c r="F3" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -951,8 +1165,14 @@
       <c r="F4" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="1">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -968,8 +1188,14 @@
       <c r="F5" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -985,8 +1211,14 @@
       <c r="F6" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="1">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1002,8 +1234,14 @@
       <c r="F7" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="1">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1019,8 +1257,14 @@
       <c r="F8" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="1">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1036,8 +1280,14 @@
       <c r="F9" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1053,8 +1303,14 @@
       <c r="F10" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1070,8 +1326,14 @@
       <c r="F11" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1087,8 +1349,14 @@
       <c r="F12" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1104,8 +1372,14 @@
       <c r="F13" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="1">
+        <v>29</v>
+      </c>
+      <c r="H13" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1121,8 +1395,14 @@
       <c r="F14" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="1">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1138,8 +1418,14 @@
       <c r="F15" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="1">
+        <v>16</v>
+      </c>
+      <c r="H15" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1155,8 +1441,14 @@
       <c r="F16" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="1">
+        <v>48</v>
+      </c>
+      <c r="H16" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1172,8 +1464,14 @@
       <c r="F17" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="1">
+        <v>57</v>
+      </c>
+      <c r="H17" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1189,8 +1487,14 @@
       <c r="F18" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="1">
+        <v>24</v>
+      </c>
+      <c r="H18" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1206,8 +1510,14 @@
       <c r="F19" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="1">
+        <v>6</v>
+      </c>
+      <c r="H19" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1223,8 +1533,14 @@
       <c r="F20" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1240,8 +1556,14 @@
       <c r="F21" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="1">
+        <v>34</v>
+      </c>
+      <c r="H21" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1257,8 +1579,14 @@
       <c r="F22" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="1">
+        <v>38</v>
+      </c>
+      <c r="H22" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1274,8 +1602,14 @@
       <c r="F23" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="1">
+        <v>15</v>
+      </c>
+      <c r="H23" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1291,8 +1625,14 @@
       <c r="F24" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="1">
+        <v>43</v>
+      </c>
+      <c r="H24" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1308,8 +1648,14 @@
       <c r="F25" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="1">
+        <v>61</v>
+      </c>
+      <c r="H25" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1325,8 +1671,14 @@
       <c r="F26" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="1">
+        <v>25</v>
+      </c>
+      <c r="H26" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1342,8 +1694,14 @@
       <c r="F27" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="1">
+        <v>42</v>
+      </c>
+      <c r="H27" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1359,8 +1717,14 @@
       <c r="F28" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="1">
+        <v>60</v>
+      </c>
+      <c r="H28" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1376,8 +1740,14 @@
       <c r="F29" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="1">
+        <v>54</v>
+      </c>
+      <c r="H29" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1393,8 +1763,14 @@
       <c r="F30" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="1">
+        <v>41</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1410,8 +1786,14 @@
       <c r="F31" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="1">
+        <v>47</v>
+      </c>
+      <c r="H31" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1427,8 +1809,14 @@
       <c r="F32" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="1">
+        <v>56</v>
+      </c>
+      <c r="H32" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1444,8 +1832,14 @@
       <c r="F33" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="1">
+        <v>51</v>
+      </c>
+      <c r="H33" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1461,8 +1855,14 @@
       <c r="F34" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="1">
+        <v>59</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1478,8 +1878,14 @@
       <c r="F35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="1">
+        <v>53</v>
+      </c>
+      <c r="H35" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1495,8 +1901,14 @@
       <c r="F36" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="1">
+        <v>49</v>
+      </c>
+      <c r="H36" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1512,8 +1924,14 @@
       <c r="F37" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="1">
+        <v>52</v>
+      </c>
+      <c r="H37" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1529,8 +1947,14 @@
       <c r="F38" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="1">
+        <v>50</v>
+      </c>
+      <c r="H38" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1546,8 +1970,14 @@
       <c r="F39" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="1">
+        <v>40</v>
+      </c>
+      <c r="H39" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1563,8 +1993,14 @@
       <c r="F40" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="1">
+        <v>19</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1580,8 +2016,14 @@
       <c r="F41" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1597,8 +2039,14 @@
       <c r="F42" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1614,8 +2062,14 @@
       <c r="F43" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="1">
+        <v>13</v>
+      </c>
+      <c r="H43" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1631,8 +2085,14 @@
       <c r="F44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="1">
+        <v>22</v>
+      </c>
+      <c r="H44" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1648,8 +2108,14 @@
       <c r="F45" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="1">
+        <v>17</v>
+      </c>
+      <c r="H45" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1665,8 +2131,14 @@
       <c r="F46" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="1">
+        <v>2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1682,8 +2154,14 @@
       <c r="F47" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="1">
+        <v>14</v>
+      </c>
+      <c r="H47" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1699,8 +2177,14 @@
       <c r="F48" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="1">
+        <v>58</v>
+      </c>
+      <c r="H48" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1716,8 +2200,14 @@
       <c r="F49" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="1">
+        <v>31</v>
+      </c>
+      <c r="H49" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1733,8 +2223,14 @@
       <c r="F50" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="1">
+        <v>32</v>
+      </c>
+      <c r="H50" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1750,8 +2246,14 @@
       <c r="F51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="1">
+        <v>46</v>
+      </c>
+      <c r="H51" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1767,8 +2269,14 @@
       <c r="F52" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="1">
+        <v>23</v>
+      </c>
+      <c r="H52" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1784,8 +2292,14 @@
       <c r="F53" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" s="1">
+        <v>35</v>
+      </c>
+      <c r="H53" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1801,8 +2315,14 @@
       <c r="F54" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" s="1">
+        <v>37</v>
+      </c>
+      <c r="H54" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1818,8 +2338,14 @@
       <c r="F55" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" s="1">
+        <v>28</v>
+      </c>
+      <c r="H55" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1835,8 +2361,14 @@
       <c r="F56" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" s="1">
+        <v>45</v>
+      </c>
+      <c r="H56" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1852,8 +2384,14 @@
       <c r="F57" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" s="1">
+        <v>55</v>
+      </c>
+      <c r="H57" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1869,8 +2407,14 @@
       <c r="F58" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" s="1">
+        <v>18</v>
+      </c>
+      <c r="H58" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1886,8 +2430,14 @@
       <c r="F59" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" s="1">
+        <v>44</v>
+      </c>
+      <c r="H59" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1903,8 +2453,14 @@
       <c r="F60" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" s="1">
+        <v>26</v>
+      </c>
+      <c r="H60" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1920,8 +2476,14 @@
       <c r="F61" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" s="1">
+        <v>36</v>
+      </c>
+      <c r="H61" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1937,8 +2499,14 @@
       <c r="F62" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" s="1">
+        <v>5</v>
+      </c>
+      <c r="H62" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1953,6 +2521,12 @@
       </c>
       <c r="F63" s="1">
         <v>5</v>
+      </c>
+      <c r="G63" s="1">
+        <v>27</v>
+      </c>
+      <c r="H63" s="1">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1965,7 +2539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AE29D4-638D-4C81-8AC6-D9273822ACF9}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4271,7 +4845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3DDEB4-DC88-4FC8-A483-D19AAFAC10A6}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7867,4 +8443,1805 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814A66B6-47F5-4D38-A129-A3D3B97302D9}">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.73799400000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.74897800000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.75180400000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.77252100000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-0.77543200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-0.79383999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.80223800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-0.80563600000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-0.80594100000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.81074299999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-0.81182500000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.82894199999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.82996899999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-0.83331900000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-0.83347199999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-0.83355000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-0.83788499999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-0.839557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-0.84617100000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-0.84795799999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-0.84987900000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-0.85946500000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-0.86583100000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>61</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-0.86760000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-0.87123300000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-0.88137399999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-0.88876900000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-0.89638899999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>41</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-0.89712599999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-0.92129399999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>56</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-0.92459400000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>51</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-0.93575399999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-0.93901599999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>53</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-0.94176099999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-0.94204399999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>52</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-0.942519</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>50</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-0.95934900000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-0.95977199999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>19</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-0.96691499999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-0.97203700000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-0.98550400000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-0.99393500000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>22</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-1.0013000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>17</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-1.03108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="1">
+        <v>-1.0423899999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-1.04834</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>58</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="1">
+        <v>-1.0551999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>31</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-1.0629500000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>32</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-1.08077</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>46</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-1.08474</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>23</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-1.08812</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>35</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-1.09995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>37</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-1.1323099999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>28</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-1.18015</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="1">
+        <v>-1.19872</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="1">
+        <v>-1.2620199999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>18</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="1">
+        <v>-1.27722</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>44</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="1">
+        <v>-1.2942199999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>26</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="1">
+        <v>-1.33344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>36</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="1">
+        <v>-1.37896</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="1">
+        <v>-1.47374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>27</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="1">
+        <v>-1.49594</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EAFD91-6FDD-4E7B-8AEB-0969C16E2F78}">
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.68132599999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.68982699999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.708708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.71575599999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-0.71599599999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.767432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-0.76957699999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-0.77654000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.78383000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-0.78642999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.78888000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.79664900000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-0.80477699999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-0.81232700000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-0.81735500000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-0.82128599999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-0.82751399999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-0.83095799999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-0.83143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-0.83247499999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-0.86903900000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>48</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-0.88529500000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>19</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-0.90429000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-0.91323900000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-0.92286699999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>57</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-0.93002200000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-0.93906000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-0.948322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>61</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-0.95650999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>53</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-0.95657700000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-0.95757000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-0.96019299999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>52</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-0.97586200000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-0.98143000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>60</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-0.98394400000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-0.98895900000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>51</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-1.00177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-1.00657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>22</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-1.01013</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-1.01128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>56</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-1.0119499999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>49</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-1.0170300000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>59</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-1.0263500000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>50</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="1">
+        <v>-1.0396399999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-1.04237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="1">
+        <v>-1.04908</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>31</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-1.08196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>35</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-1.0972</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>23</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-1.10314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>32</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-1.1107499999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>58</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-1.1178900000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>37</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-1.125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-1.1382399999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>28</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="1">
+        <v>-1.18154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>18</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="1">
+        <v>-1.2151099999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>44</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="1">
+        <v>-1.2319800000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>55</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="1">
+        <v>-1.27948</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>26</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="1">
+        <v>-1.3246500000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>36</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="1">
+        <v>-1.4127000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="1">
+        <v>-1.45506</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>27</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="1">
+        <v>-1.58636</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Distribution/electrodes_ranking.xlsx
+++ b/Distribution/electrodes_ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\fc_channelselection\Distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C17F71E-CE80-43FA-9EAD-94FAA2C82355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9057DFCB-EDD2-46D1-AC41-DDE12DA03A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="5" r:id="rId1"/>
@@ -280,7 +280,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>modeled_gaussian</t>
+    <t>modeled_g_gaussian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1070,7 +1070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFAF64A-5DEA-4FD4-B8E4-1ED29CE4150B}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9350,7 +9350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EAFD91-6FDD-4E7B-8AEB-0969C16E2F78}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
